--- a/Dispa-SET/Simulation/InputDispa-SET - TimeUpMinimum.xlsx
+++ b/Dispa-SET/Simulation/InputDispa-SET - TimeUpMinimum.xlsx
@@ -225,12 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +547,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>5</v>
       </c>
     </row>
@@ -556,7 +555,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>5</v>
       </c>
     </row>
@@ -564,7 +563,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>5</v>
       </c>
     </row>
@@ -572,7 +571,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
@@ -580,7 +579,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
@@ -588,7 +587,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
@@ -596,7 +595,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>5</v>
       </c>
     </row>
@@ -604,7 +603,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>5</v>
       </c>
     </row>
@@ -612,7 +611,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>5</v>
       </c>
     </row>
@@ -620,7 +619,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>5</v>
       </c>
     </row>
@@ -628,7 +627,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
@@ -636,7 +635,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>5</v>
       </c>
     </row>
@@ -644,7 +643,7 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>5</v>
       </c>
     </row>
@@ -652,7 +651,7 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>5</v>
       </c>
     </row>
@@ -660,7 +659,7 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>5</v>
       </c>
     </row>
@@ -668,7 +667,7 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>5</v>
       </c>
     </row>
@@ -676,7 +675,7 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>5</v>
       </c>
     </row>
@@ -684,7 +683,7 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>5</v>
       </c>
     </row>
@@ -692,7 +691,7 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>5</v>
       </c>
     </row>
@@ -700,7 +699,7 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>5</v>
       </c>
     </row>
@@ -708,7 +707,7 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>5</v>
       </c>
     </row>
@@ -716,7 +715,7 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>5</v>
       </c>
     </row>
@@ -724,7 +723,7 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>5</v>
       </c>
     </row>
@@ -732,7 +731,7 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>5</v>
       </c>
     </row>
@@ -740,7 +739,7 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>5</v>
       </c>
     </row>
@@ -748,7 +747,7 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>5</v>
       </c>
     </row>
@@ -756,7 +755,7 @@
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>0</v>
       </c>
     </row>
@@ -764,7 +763,7 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +771,7 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>0</v>
       </c>
     </row>
@@ -780,7 +779,7 @@
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>0</v>
       </c>
     </row>
@@ -788,7 +787,7 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +795,7 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>0</v>
       </c>
     </row>
@@ -804,7 +803,7 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>0</v>
       </c>
     </row>
@@ -812,7 +811,7 @@
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>24</v>
       </c>
     </row>
@@ -820,7 +819,7 @@
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>24</v>
       </c>
     </row>
@@ -828,7 +827,7 @@
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>24</v>
       </c>
     </row>
@@ -836,7 +835,7 @@
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>24</v>
       </c>
     </row>
@@ -844,7 +843,7 @@
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>24</v>
       </c>
     </row>
@@ -852,7 +851,7 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>24</v>
       </c>
     </row>
@@ -860,7 +859,7 @@
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>24</v>
       </c>
     </row>
@@ -868,7 +867,7 @@
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>24</v>
       </c>
     </row>
@@ -876,7 +875,7 @@
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>0</v>
       </c>
     </row>
@@ -884,7 +883,7 @@
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>0</v>
       </c>
     </row>
@@ -892,7 +891,7 @@
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>0</v>
       </c>
     </row>
@@ -900,7 +899,7 @@
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>0</v>
       </c>
     </row>
@@ -908,7 +907,7 @@
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>0</v>
       </c>
     </row>
@@ -916,7 +915,7 @@
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>0</v>
       </c>
     </row>
@@ -924,7 +923,7 @@
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>0</v>
       </c>
     </row>
@@ -932,7 +931,7 @@
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>0</v>
       </c>
     </row>
